--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15716.37915956382</v>
+        <v>15068.01993275914</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11517486.19315933</v>
+        <v>11517486.19315932</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="C11" t="n">
-        <v>63.77305697545751</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="F11" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>63.77305697545754</v>
       </c>
       <c r="W11" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.80690084957005</v>
+        <v>11.80690084957002</v>
       </c>
       <c r="V12" t="n">
-        <v>18.68115031993869</v>
+        <v>18.68115031993867</v>
       </c>
       <c r="W12" t="n">
-        <v>37.57554633143303</v>
+        <v>37.575546331433</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.55612015985543</v>
+        <v>6.556120159855404</v>
       </c>
       <c r="T13" t="n">
-        <v>13.00701368779533</v>
+        <v>13.0070136877953</v>
       </c>
       <c r="U13" t="n">
-        <v>72.18913543452346</v>
+        <v>72.18913543452344</v>
       </c>
       <c r="V13" t="n">
-        <v>38.01820649434143</v>
+        <v>38.0182064943414</v>
       </c>
       <c r="W13" t="n">
-        <v>72.40356150710443</v>
+        <v>72.4035615071044</v>
       </c>
       <c r="X13" t="n">
-        <v>11.59021855955058</v>
+        <v>11.59021855955055</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.465216522608216</v>
+        <v>4.465216522608188</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="C14" t="n">
-        <v>19.47552824536774</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105504016099331</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399043</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>63.77305697545761</v>
       </c>
       <c r="W14" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.80690084957005</v>
+        <v>11.8069008495701</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993869</v>
+        <v>18.68115031993875</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143303</v>
+        <v>37.57554633143309</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.55612015985543</v>
+        <v>6.556120159855489</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779533</v>
+        <v>13.00701368779539</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452346</v>
+        <v>72.18913543452352</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434143</v>
+        <v>38.01820649434148</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955058</v>
+        <v>11.59021855955064</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608216</v>
+        <v>4.465216522608273</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.88964134293059</v>
+        <v>34.88964134293053</v>
       </c>
       <c r="C17" t="n">
-        <v>17.42869145045756</v>
+        <v>17.42869145045751</v>
       </c>
       <c r="D17" t="n">
-        <v>6.83884130013297</v>
+        <v>6.838841300133026</v>
       </c>
       <c r="E17" t="n">
-        <v>34.08616975171179</v>
+        <v>34.08616975171174</v>
       </c>
       <c r="F17" t="n">
-        <v>59.03184542116145</v>
+        <v>59.03184542116139</v>
       </c>
       <c r="G17" t="n">
-        <v>67.03114514009155</v>
+        <v>67.03114514009147</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.396768396863024</v>
+        <v>1.396768396862967</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88690035791905</v>
+        <v>21.88690035791899</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.3937383355036</v>
+        <v>38.39373833550354</v>
       </c>
     </row>
     <row r="18">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C26" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D26" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E26" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F26" t="n">
-        <v>185.6511048961254</v>
+        <v>185.6511048961255</v>
       </c>
       <c r="G26" t="n">
-        <v>193.6504046150555</v>
+        <v>193.6504046150556</v>
       </c>
       <c r="H26" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.08652069789102</v>
+        <v>30.0865206978911</v>
       </c>
       <c r="V26" t="n">
-        <v>106.5273176245489</v>
+        <v>106.527317624549</v>
       </c>
       <c r="W26" t="n">
-        <v>128.016027871827</v>
+        <v>128.0160278718271</v>
       </c>
       <c r="X26" t="n">
-        <v>148.506159832883</v>
+        <v>148.5061598328831</v>
       </c>
       <c r="Y26" t="n">
-        <v>165.0129978104676</v>
+        <v>165.0129978104677</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4.70139683347063</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V27" t="n">
-        <v>11.57564630383928</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W27" t="n">
-        <v>30.47004231533361</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671695911</v>
+        <v>5.901509671695996</v>
       </c>
       <c r="U28" t="n">
-        <v>65.08363141842405</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V28" t="n">
-        <v>30.91270247824201</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W28" t="n">
-        <v>65.29805749100501</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X28" t="n">
-        <v>4.484714543451162</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>133.458100775097</v>
       </c>
       <c r="E29" t="n">
-        <v>160.7054292266766</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F29" t="n">
         <v>185.6511048961254</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.093589026497</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C35" t="n">
-        <v>120.632639134024</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D35" t="n">
-        <v>110.0427889836994</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E35" t="n">
-        <v>137.2901174352782</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F35" t="n">
         <v>162.2357931047279</v>
       </c>
       <c r="G35" t="n">
-        <v>170.235092823658</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H35" t="n">
-        <v>90.45752060070171</v>
+        <v>90.45752060070177</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493462</v>
+        <v>6.671208906493518</v>
       </c>
       <c r="V35" t="n">
-        <v>83.11200583315136</v>
+        <v>83.11200583315141</v>
       </c>
       <c r="W35" t="n">
         <v>104.6007160804295</v>
@@ -3332,7 +3332,7 @@
         <v>125.0908480414855</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.59768601907</v>
+        <v>141.5976860190701</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.054730523936058</v>
+        <v>7.054730523936115</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>41.66831962702649</v>
+        <v>41.66831962702655</v>
       </c>
       <c r="V37" t="n">
-        <v>7.497390686844454</v>
+        <v>7.497390686844511</v>
       </c>
       <c r="W37" t="n">
-        <v>41.88274569960745</v>
+        <v>41.88274569960751</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.093589026497</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C38" t="n">
-        <v>120.632639134024</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D38" t="n">
-        <v>110.0427889836994</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E38" t="n">
-        <v>137.2901174352782</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F38" t="n">
         <v>162.2357931047279</v>
       </c>
       <c r="G38" t="n">
-        <v>170.235092823658</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H38" t="n">
-        <v>90.45752060070171</v>
+        <v>90.45752060070177</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.671208906493465</v>
+        <v>6.671208906493518</v>
       </c>
       <c r="V38" t="n">
-        <v>83.11200583315136</v>
+        <v>83.11200583315141</v>
       </c>
       <c r="W38" t="n">
         <v>104.6007160804295</v>
@@ -3569,7 +3569,7 @@
         <v>125.0908480414855</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.59768601907</v>
+        <v>141.5976860190701</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.054730523936058</v>
+        <v>7.054730523936115</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.66831962702649</v>
+        <v>41.66831962702655</v>
       </c>
       <c r="V40" t="n">
-        <v>7.497390686844454</v>
+        <v>7.497390686844511</v>
       </c>
       <c r="W40" t="n">
-        <v>41.88274569960745</v>
+        <v>41.88274569960751</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.0935890264977</v>
+        <v>138.093589026497</v>
       </c>
       <c r="C44" t="n">
         <v>120.632639134024</v>
@@ -4037,7 +4037,7 @@
         <v>83.11200583315136</v>
       </c>
       <c r="W44" t="n">
-        <v>104.6007160804295</v>
+        <v>104.6007160804293</v>
       </c>
       <c r="X44" t="n">
         <v>125.0908480414855</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.4793354151809</v>
+        <v>78.92719553380522</v>
       </c>
       <c r="C11" t="n">
-        <v>152.062106147042</v>
+        <v>78.92719553380522</v>
       </c>
       <c r="D11" t="n">
-        <v>152.062106147042</v>
+        <v>78.92719553380522</v>
       </c>
       <c r="E11" t="n">
-        <v>152.062106147042</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="F11" t="n">
-        <v>78.92719553380515</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="G11" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H11" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="I11" t="n">
-        <v>5.792284920568354</v>
+        <v>25.71165856611153</v>
       </c>
       <c r="J11" t="n">
-        <v>5.792284920568354</v>
+        <v>25.71165856611153</v>
       </c>
       <c r="K11" t="n">
-        <v>53.70378817849321</v>
+        <v>25.71165856611153</v>
       </c>
       <c r="L11" t="n">
-        <v>67.72405163922207</v>
+        <v>71.05236513010915</v>
       </c>
       <c r="M11" t="n">
-        <v>125.9553652431154</v>
+        <v>121.5074655259237</v>
       </c>
       <c r="N11" t="n">
-        <v>171.4277250035864</v>
+        <v>181.8648014622735</v>
       </c>
       <c r="O11" t="n">
-        <v>226.89938364864</v>
+        <v>237.3364601073271</v>
       </c>
       <c r="P11" t="n">
-        <v>226.89938364864</v>
+        <v>237.3364601073271</v>
       </c>
       <c r="Q11" t="n">
-        <v>264.4869915215683</v>
+        <v>274.9240679802554</v>
       </c>
       <c r="R11" t="n">
-        <v>289.6142460284177</v>
+        <v>274.9240679802554</v>
       </c>
       <c r="S11" t="n">
-        <v>289.6142460284177</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="T11" t="n">
-        <v>289.6142460284177</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="U11" t="n">
-        <v>289.6142460284177</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="V11" t="n">
-        <v>289.6142460284177</v>
+        <v>225.197016760279</v>
       </c>
       <c r="W11" t="n">
-        <v>216.4793354151809</v>
+        <v>152.0621061470421</v>
       </c>
       <c r="X11" t="n">
-        <v>216.4793354151809</v>
+        <v>152.0621061470421</v>
       </c>
       <c r="Y11" t="n">
-        <v>216.4793354151809</v>
+        <v>152.0621061470421</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.90267556839139</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C12" t="n">
-        <v>52.90267556839139</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="D12" t="n">
-        <v>52.90267556839139</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="E12" t="n">
-        <v>52.90267556839139</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="F12" t="n">
-        <v>52.90267556839139</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="G12" t="n">
-        <v>52.90267556839139</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="H12" t="n">
-        <v>52.90267556839139</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="I12" t="n">
-        <v>59.81572930011352</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="J12" t="n">
-        <v>59.81572930011352</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="K12" t="n">
-        <v>59.81572930011352</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="L12" t="n">
-        <v>59.81572930011352</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="M12" t="n">
-        <v>59.81572930011352</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="N12" t="n">
-        <v>59.81572930011352</v>
+        <v>71.79991247276773</v>
       </c>
       <c r="O12" t="n">
-        <v>59.81572930011352</v>
+        <v>74.54339350737814</v>
       </c>
       <c r="P12" t="n">
-        <v>59.81572930011352</v>
+        <v>74.54339350737814</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.81572930011352</v>
+        <v>74.54339350737814</v>
       </c>
       <c r="R12" t="n">
-        <v>59.81572930011352</v>
+        <v>74.54339350737814</v>
       </c>
       <c r="S12" t="n">
-        <v>59.81572930011352</v>
+        <v>74.54339350737814</v>
       </c>
       <c r="T12" t="n">
-        <v>74.54339350737823</v>
+        <v>74.54339350737814</v>
       </c>
       <c r="U12" t="n">
-        <v>62.61723103306505</v>
+        <v>62.617231033065</v>
       </c>
       <c r="V12" t="n">
-        <v>43.74738222504617</v>
+        <v>43.74738222504614</v>
       </c>
       <c r="W12" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="X12" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C13" t="n">
-        <v>37.87533000649793</v>
+        <v>52.19617449411854</v>
       </c>
       <c r="D13" t="n">
-        <v>37.87533000649793</v>
+        <v>52.19617449411854</v>
       </c>
       <c r="E13" t="n">
-        <v>37.87533000649793</v>
+        <v>109.554855898531</v>
       </c>
       <c r="F13" t="n">
-        <v>37.87533000649793</v>
+        <v>109.554855898531</v>
       </c>
       <c r="G13" t="n">
-        <v>37.87533000649793</v>
+        <v>109.554855898531</v>
       </c>
       <c r="H13" t="n">
-        <v>37.87533000649793</v>
+        <v>109.554855898531</v>
       </c>
       <c r="I13" t="n">
-        <v>37.87533000649793</v>
+        <v>109.554855898531</v>
       </c>
       <c r="J13" t="n">
-        <v>37.87533000649793</v>
+        <v>109.554855898531</v>
       </c>
       <c r="K13" t="n">
-        <v>37.87533000649793</v>
+        <v>109.554855898531</v>
       </c>
       <c r="L13" t="n">
-        <v>37.87533000649793</v>
+        <v>109.554855898531</v>
       </c>
       <c r="M13" t="n">
-        <v>37.87533000649793</v>
+        <v>181.2343817905644</v>
       </c>
       <c r="N13" t="n">
-        <v>109.5548558985313</v>
+        <v>181.2343817905644</v>
       </c>
       <c r="O13" t="n">
-        <v>181.2343817905647</v>
+        <v>181.2343817905644</v>
       </c>
       <c r="P13" t="n">
-        <v>181.2343817905647</v>
+        <v>181.2343817905644</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.2343817905647</v>
+        <v>181.2343817905644</v>
       </c>
       <c r="R13" t="n">
-        <v>226.2260953910521</v>
+        <v>226.2260953910519</v>
       </c>
       <c r="S13" t="n">
-        <v>219.6037517952385</v>
+        <v>219.6037517952383</v>
       </c>
       <c r="T13" t="n">
-        <v>206.4653541307988</v>
+        <v>206.4653541307986</v>
       </c>
       <c r="U13" t="n">
-        <v>133.547035510068</v>
+        <v>133.5470355100679</v>
       </c>
       <c r="V13" t="n">
-        <v>95.14480672790495</v>
+        <v>95.14480672790486</v>
       </c>
       <c r="W13" t="n">
-        <v>22.00989611466815</v>
+        <v>22.00989611466809</v>
       </c>
       <c r="X13" t="n">
-        <v>10.30260464037463</v>
+        <v>10.30260464037461</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.46453567346506</v>
+        <v>78.92719553380522</v>
       </c>
       <c r="C14" t="n">
-        <v>5.792284920568354</v>
+        <v>78.92719553380522</v>
       </c>
       <c r="D14" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="E14" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="F14" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="G14" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H14" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="I14" t="n">
-        <v>25.71165856611151</v>
+        <v>25.71165856611145</v>
       </c>
       <c r="J14" t="n">
-        <v>94.36607826710356</v>
+        <v>25.71165856611145</v>
       </c>
       <c r="K14" t="n">
-        <v>94.36607826710356</v>
+        <v>25.71165856611145</v>
       </c>
       <c r="L14" t="n">
-        <v>94.36607826710356</v>
+        <v>71.05236513010898</v>
       </c>
       <c r="M14" t="n">
-        <v>152.5973918709969</v>
+        <v>71.05236513010898</v>
       </c>
       <c r="N14" t="n">
-        <v>212.2092056004774</v>
+        <v>131.4097010664587</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2092056004774</v>
+        <v>186.8813597115122</v>
       </c>
       <c r="P14" t="n">
-        <v>212.2092056004774</v>
+        <v>186.8813597115122</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.7968134734058</v>
+        <v>224.4689675844404</v>
       </c>
       <c r="R14" t="n">
-        <v>274.9240679802552</v>
+        <v>274.9240679802555</v>
       </c>
       <c r="S14" t="n">
-        <v>289.6142460284177</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="T14" t="n">
-        <v>282.436969244479</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="U14" t="n">
-        <v>244.8692675131755</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="V14" t="n">
-        <v>244.8692675131755</v>
+        <v>225.1970167602789</v>
       </c>
       <c r="W14" t="n">
-        <v>171.7343568999387</v>
+        <v>225.1970167602789</v>
       </c>
       <c r="X14" t="n">
-        <v>98.59944628670186</v>
+        <v>152.0621061470421</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.46453567346506</v>
+        <v>152.0621061470421</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="D15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="E15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="F15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="G15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="I15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="J15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="K15" t="n">
-        <v>5.792284920568354</v>
+        <v>59.81572930011375</v>
       </c>
       <c r="L15" t="n">
-        <v>5.792284920568354</v>
+        <v>59.81572930011375</v>
       </c>
       <c r="M15" t="n">
-        <v>5.792284920568354</v>
+        <v>59.81572930011375</v>
       </c>
       <c r="N15" t="n">
-        <v>74.54339350737823</v>
+        <v>59.81572930011375</v>
       </c>
       <c r="O15" t="n">
-        <v>74.54339350737823</v>
+        <v>59.81572930011375</v>
       </c>
       <c r="P15" t="n">
-        <v>74.54339350737823</v>
+        <v>59.81572930011375</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.54339350737823</v>
+        <v>59.81572930011375</v>
       </c>
       <c r="R15" t="n">
-        <v>74.54339350737823</v>
+        <v>59.81572930011375</v>
       </c>
       <c r="S15" t="n">
-        <v>74.54339350737823</v>
+        <v>59.81572930011375</v>
       </c>
       <c r="T15" t="n">
-        <v>74.54339350737823</v>
+        <v>74.5433935073784</v>
       </c>
       <c r="U15" t="n">
-        <v>62.61723103306505</v>
+        <v>62.61723103306517</v>
       </c>
       <c r="V15" t="n">
-        <v>43.74738222504617</v>
+        <v>43.74738222504622</v>
       </c>
       <c r="W15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="X15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.73686700164214</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C16" t="n">
-        <v>39.73686700164214</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="D16" t="n">
-        <v>39.73686700164214</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="E16" t="n">
-        <v>39.73686700164214</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="F16" t="n">
-        <v>39.73686700164214</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="G16" t="n">
-        <v>39.73686700164214</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="H16" t="n">
-        <v>39.73686700164214</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5268295027434</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="J16" t="n">
-        <v>103.5268295027434</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="K16" t="n">
-        <v>175.2063553947768</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="L16" t="n">
-        <v>175.2063553947768</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="M16" t="n">
-        <v>226.2260953910521</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="N16" t="n">
-        <v>226.2260953910521</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="O16" t="n">
-        <v>226.2260953910521</v>
+        <v>72.80090436165654</v>
       </c>
       <c r="P16" t="n">
-        <v>226.2260953910521</v>
+        <v>144.48043025369</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.2260953910521</v>
+        <v>181.2343817905652</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910521</v>
+        <v>226.2260953910525</v>
       </c>
       <c r="S16" t="n">
-        <v>219.6037517952385</v>
+        <v>219.6037517952389</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307988</v>
+        <v>206.4653541307991</v>
       </c>
       <c r="U16" t="n">
-        <v>133.547035510068</v>
+        <v>133.5470355100682</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790495</v>
+        <v>95.14480672790512</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466815</v>
+        <v>22.00989611466827</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037463</v>
+        <v>10.3026046403747</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635528</v>
+        <v>192.071772863553</v>
       </c>
       <c r="C17" t="n">
-        <v>174.4670340247069</v>
+        <v>174.467034024707</v>
       </c>
       <c r="D17" t="n">
-        <v>167.5591135195223</v>
+        <v>167.5591135195225</v>
       </c>
       <c r="E17" t="n">
-        <v>133.1286390228443</v>
+        <v>133.128639022844</v>
       </c>
       <c r="F17" t="n">
-        <v>73.50051233480225</v>
+        <v>73.50051233480217</v>
       </c>
       <c r="G17" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H17" t="n">
-        <v>18.41124773260444</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="I17" t="n">
-        <v>18.41124773260444</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="J17" t="n">
-        <v>18.41124773260444</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="K17" t="n">
-        <v>18.41124773260444</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="L17" t="n">
-        <v>90.09077362463782</v>
+        <v>74.57566835231762</v>
       </c>
       <c r="M17" t="n">
-        <v>90.09077362463782</v>
+        <v>74.57566835231762</v>
       </c>
       <c r="N17" t="n">
-        <v>90.09077362463782</v>
+        <v>74.57566835231762</v>
       </c>
       <c r="O17" t="n">
-        <v>90.09077362463782</v>
+        <v>74.57566835231762</v>
       </c>
       <c r="P17" t="n">
-        <v>90.09077362463782</v>
+        <v>74.57566835231762</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.09077362463782</v>
+        <v>146.2551942443511</v>
       </c>
       <c r="R17" t="n">
-        <v>126.36417181244</v>
+        <v>146.2551942443511</v>
       </c>
       <c r="S17" t="n">
-        <v>126.36417181244</v>
+        <v>146.2551942443511</v>
       </c>
       <c r="T17" t="n">
-        <v>198.0436977044734</v>
+        <v>217.9347201363845</v>
       </c>
       <c r="U17" t="n">
-        <v>269.7232235965068</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="V17" t="n">
-        <v>289.6142460284177</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="W17" t="n">
-        <v>288.2033688598692</v>
+        <v>288.2033688598695</v>
       </c>
       <c r="X17" t="n">
-        <v>266.095388700355</v>
+        <v>266.0953887003553</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.313834826109</v>
+        <v>227.3138348261091</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="D18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="E18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="F18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="G18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="I18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="J18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="K18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="L18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="M18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="N18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="O18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="P18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="R18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="S18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="T18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="U18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="V18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="W18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="X18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="D19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="E19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="F19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="G19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="I19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="J19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="K19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="L19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="M19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="N19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="O19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="P19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="R19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="S19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="T19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="U19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="V19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="W19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="X19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.0717728635532</v>
+        <v>192.0717728635534</v>
       </c>
       <c r="C20" t="n">
         <v>174.4670340247073</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5591135195226</v>
+        <v>167.5591135195225</v>
       </c>
       <c r="E20" t="n">
         <v>133.128639022844</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480218</v>
+        <v>73.5005123348022</v>
       </c>
       <c r="G20" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H20" t="n">
         <v>18.41124773260449</v>
@@ -5750,52 +5750,52 @@
         <v>18.41124773260449</v>
       </c>
       <c r="J20" t="n">
-        <v>18.41124773260449</v>
+        <v>90.09077362463793</v>
       </c>
       <c r="K20" t="n">
-        <v>18.41124773260449</v>
+        <v>90.09077362463793</v>
       </c>
       <c r="L20" t="n">
-        <v>18.41124773260449</v>
+        <v>146.2551942443511</v>
       </c>
       <c r="M20" t="n">
-        <v>18.41124773260449</v>
+        <v>146.2551942443511</v>
       </c>
       <c r="N20" t="n">
-        <v>18.41124773260449</v>
+        <v>146.2551942443511</v>
       </c>
       <c r="O20" t="n">
-        <v>18.41124773260449</v>
+        <v>217.9347201363845</v>
       </c>
       <c r="P20" t="n">
-        <v>54.68464592040658</v>
+        <v>217.9347201363845</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.68464592040658</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="R20" t="n">
-        <v>54.68464592040658</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="S20" t="n">
-        <v>126.36417181244</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="T20" t="n">
-        <v>198.0436977044733</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="U20" t="n">
-        <v>269.7232235965067</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="V20" t="n">
-        <v>289.6142460284177</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="W20" t="n">
-        <v>288.2033688598694</v>
+        <v>288.2033688598695</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0953887003553</v>
+        <v>266.0953887003554</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3138348261093</v>
+        <v>227.3138348261095</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="D21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="E21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="F21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="G21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="I21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="J21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="K21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="L21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="M21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="N21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="O21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="P21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="R21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="S21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="T21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="U21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="V21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="W21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="X21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="D22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="E22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="F22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="G22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="I22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="J22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="K22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="L22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="M22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="N22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="O22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="P22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="R22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="S22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="T22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="U22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="V22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="W22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="X22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.071772863553</v>
+        <v>192.0717728635529</v>
       </c>
       <c r="C23" t="n">
         <v>174.4670340247069</v>
@@ -5972,64 +5972,64 @@
         <v>167.5591135195223</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228438</v>
+        <v>133.128639022844</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480218</v>
+        <v>73.5005123348022</v>
       </c>
       <c r="G23" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H23" t="n">
-        <v>5.792284920568346</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="I23" t="n">
-        <v>74.57566835231745</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="J23" t="n">
-        <v>74.57566835231745</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="K23" t="n">
-        <v>146.2551942443507</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="L23" t="n">
-        <v>217.934720136384</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="M23" t="n">
-        <v>217.934720136384</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="N23" t="n">
-        <v>217.934720136384</v>
+        <v>18.41124773260449</v>
       </c>
       <c r="O23" t="n">
-        <v>217.934720136384</v>
+        <v>54.68464592040664</v>
       </c>
       <c r="P23" t="n">
-        <v>217.934720136384</v>
+        <v>126.3641718124401</v>
       </c>
       <c r="Q23" t="n">
-        <v>217.934720136384</v>
+        <v>126.3641718124401</v>
       </c>
       <c r="R23" t="n">
-        <v>217.934720136384</v>
+        <v>126.3641718124401</v>
       </c>
       <c r="S23" t="n">
-        <v>217.934720136384</v>
+        <v>198.0436977044735</v>
       </c>
       <c r="T23" t="n">
-        <v>289.6142460284173</v>
+        <v>198.0436977044735</v>
       </c>
       <c r="U23" t="n">
-        <v>289.6142460284173</v>
+        <v>269.723223596507</v>
       </c>
       <c r="V23" t="n">
-        <v>289.6142460284173</v>
+        <v>289.6142460284179</v>
       </c>
       <c r="W23" t="n">
-        <v>288.203368859869</v>
+        <v>288.2033688598692</v>
       </c>
       <c r="X23" t="n">
-        <v>266.095388700355</v>
+        <v>266.0953887003552</v>
       </c>
       <c r="Y23" t="n">
         <v>227.313834826109</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="D24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="E24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="F24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="G24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="I24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="J24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="K24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="L24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="M24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="N24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="O24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="P24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="R24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="S24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="T24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="U24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="V24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="W24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="X24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="C25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="D25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="E25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="F25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="H25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="I25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="J25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="K25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="L25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="M25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="N25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="O25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="P25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="R25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="S25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="T25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="U25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="V25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="W25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="X25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568359</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.241168133978</v>
+        <v>975.2411681339775</v>
       </c>
       <c r="C26" t="n">
-        <v>829.7381874012291</v>
+        <v>829.7381874012286</v>
       </c>
       <c r="D26" t="n">
-        <v>694.9320250021412</v>
+        <v>694.9320250021407</v>
       </c>
       <c r="E26" t="n">
-        <v>532.6033086115597</v>
+        <v>532.603308611559</v>
       </c>
       <c r="F26" t="n">
-        <v>345.0769400296147</v>
+        <v>345.076940029614</v>
       </c>
       <c r="G26" t="n">
         <v>149.4704707214771</v>
@@ -6221,31 +6221,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>61.40123032063613</v>
+        <v>61.40123032063604</v>
       </c>
       <c r="J26" t="n">
-        <v>193.9708721599478</v>
+        <v>61.40123032063604</v>
       </c>
       <c r="K26" t="n">
-        <v>450.2179268646013</v>
+        <v>397.7399539479043</v>
       </c>
       <c r="L26" t="n">
-        <v>876.5045971416389</v>
+        <v>450.1151094878402</v>
       </c>
       <c r="M26" t="n">
-        <v>1167.776066442245</v>
+        <v>876.4017797648778</v>
       </c>
       <c r="N26" t="n">
-        <v>1235.167851354533</v>
+        <v>943.7935646771659</v>
       </c>
       <c r="O26" t="n">
-        <v>1297.673958975525</v>
+        <v>979.0932378857576</v>
       </c>
       <c r="P26" t="n">
         <v>1348.610901174414</v>
       </c>
       <c r="Q26" t="n">
-        <v>1603.424798776586</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R26" t="n">
         <v>1700.645757933627</v>
@@ -6288,58 +6288,58 @@
         <v>34.44740769915455</v>
       </c>
       <c r="E27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="F27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="G27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="H27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="I27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="J27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="K27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="L27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="M27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N27" t="n">
-        <v>81.66668593414802</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O27" t="n">
-        <v>81.66668593414802</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P27" t="n">
-        <v>81.66668593414802</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66668593414802</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R27" t="n">
-        <v>81.66668593414802</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S27" t="n">
-        <v>81.66668593414802</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T27" t="n">
-        <v>81.66668593414802</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U27" t="n">
-        <v>76.91780024377364</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V27" t="n">
-        <v>65.22522821969356</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W27" t="n">
         <v>34.44740769915455</v>
@@ -6358,70 +6358,70 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.44740769915455</v>
+        <v>60.93294389079691</v>
       </c>
       <c r="C28" t="n">
-        <v>34.44740769915455</v>
+        <v>60.93294389079691</v>
       </c>
       <c r="D28" t="n">
-        <v>34.44740769915455</v>
+        <v>132.8163170398967</v>
       </c>
       <c r="E28" t="n">
-        <v>108.4904761161812</v>
+        <v>132.8163170398967</v>
       </c>
       <c r="F28" t="n">
-        <v>108.4904761161812</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="G28" t="n">
-        <v>108.4904761161812</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="H28" t="n">
-        <v>108.4904761161812</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="I28" t="n">
-        <v>108.4904761161812</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="J28" t="n">
-        <v>108.4904761161812</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="K28" t="n">
-        <v>108.4904761161812</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="L28" t="n">
-        <v>108.4904761161812</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="M28" t="n">
-        <v>108.4904761161812</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="N28" t="n">
-        <v>108.4904761161812</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="O28" t="n">
-        <v>207.8621709343244</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="P28" t="n">
-        <v>207.8621709343244</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.8621709343244</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R28" t="n">
-        <v>207.8621709343244</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S28" t="n">
-        <v>207.8621709343244</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T28" t="n">
-        <v>201.9010500538235</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1600082170315</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V28" t="n">
-        <v>104.9350562188073</v>
+        <v>104.9350562188074</v>
       </c>
       <c r="W28" t="n">
-        <v>38.97742238950926</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X28" t="n">
         <v>34.44740769915455</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>975.2411681339781</v>
+        <v>975.241168133978</v>
       </c>
       <c r="C29" t="n">
-        <v>829.7381874012291</v>
+        <v>829.738187401229</v>
       </c>
       <c r="D29" t="n">
-        <v>694.9320250021412</v>
+        <v>694.9320250021411</v>
       </c>
       <c r="E29" t="n">
-        <v>532.6033086115588</v>
+        <v>532.6033086115596</v>
       </c>
       <c r="F29" t="n">
-        <v>345.0769400296139</v>
+        <v>345.0769400296146</v>
       </c>
       <c r="G29" t="n">
         <v>149.4704707214771</v>
@@ -6458,31 +6458,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.40123032063613</v>
+        <v>61.40123032063612</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0900989975666</v>
+        <v>61.40123032063612</v>
       </c>
       <c r="K29" t="n">
-        <v>512.9400096768829</v>
+        <v>116.3471825544994</v>
       </c>
       <c r="L29" t="n">
-        <v>512.9400096768829</v>
+        <v>116.3471825544994</v>
       </c>
       <c r="M29" t="n">
-        <v>804.2114789774887</v>
+        <v>542.633852831537</v>
       </c>
       <c r="N29" t="n">
-        <v>1200.659077376148</v>
+        <v>771.8192590458494</v>
       </c>
       <c r="O29" t="n">
-        <v>1263.16518499714</v>
+        <v>1198.105929322887</v>
       </c>
       <c r="P29" t="n">
-        <v>1632.682848285797</v>
+        <v>1567.623592611544</v>
       </c>
       <c r="Q29" t="n">
-        <v>1668.484054450839</v>
+        <v>1603.424798776586</v>
       </c>
       <c r="R29" t="n">
         <v>1700.645757933627</v>
@@ -6500,7 +6500,7 @@
         <v>1584.376608874455</v>
       </c>
       <c r="W29" t="n">
-        <v>1455.067489812004</v>
+        <v>1455.067489812003</v>
       </c>
       <c r="X29" t="n">
         <v>1305.061267758586</v>
@@ -6540,7 +6540,7 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414802</v>
       </c>
       <c r="K30" t="n">
         <v>81.66668593414802</v>
@@ -6598,40 +6598,40 @@
         <v>34.44740769915455</v>
       </c>
       <c r="C31" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864313</v>
       </c>
       <c r="D31" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864313</v>
       </c>
       <c r="E31" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864313</v>
       </c>
       <c r="F31" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864313</v>
       </c>
       <c r="G31" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864313</v>
       </c>
       <c r="H31" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864313</v>
       </c>
       <c r="I31" t="n">
-        <v>34.44740769915455</v>
+        <v>94.16778609438092</v>
       </c>
       <c r="J31" t="n">
-        <v>34.44740769915455</v>
+        <v>94.16778609438092</v>
       </c>
       <c r="K31" t="n">
-        <v>34.44740769915455</v>
+        <v>94.16778609438092</v>
       </c>
       <c r="L31" t="n">
-        <v>34.44740769915455</v>
+        <v>207.8621709343244</v>
       </c>
       <c r="M31" t="n">
-        <v>145.6749945599478</v>
+        <v>207.8621709343244</v>
       </c>
       <c r="N31" t="n">
-        <v>145.6749945599478</v>
+        <v>207.8621709343244</v>
       </c>
       <c r="O31" t="n">
         <v>207.8621709343244</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>975.2411681339781</v>
+        <v>975.2411681339778</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012291</v>
+        <v>829.7381874012287</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021411</v>
+        <v>694.9320250021408</v>
       </c>
       <c r="E32" t="n">
-        <v>532.6033086115594</v>
+        <v>532.6033086115591</v>
       </c>
       <c r="F32" t="n">
-        <v>345.0769400296144</v>
+        <v>345.0769400296142</v>
       </c>
       <c r="G32" t="n">
         <v>149.4704707214771</v>
@@ -6701,25 +6701,25 @@
         <v>304.4957480179195</v>
       </c>
       <c r="K32" t="n">
-        <v>359.4417002517827</v>
+        <v>680.3456586972359</v>
       </c>
       <c r="L32" t="n">
-        <v>411.8168557917187</v>
+        <v>927.1927252049877</v>
       </c>
       <c r="M32" t="n">
-        <v>411.8168557917187</v>
+        <v>992.4584877848193</v>
       </c>
       <c r="N32" t="n">
-        <v>838.1035260687563</v>
+        <v>1033.48542827548</v>
       </c>
       <c r="O32" t="n">
-        <v>1264.390196345794</v>
+        <v>1095.991535896472</v>
       </c>
       <c r="P32" t="n">
-        <v>1348.610901174414</v>
+        <v>1465.509199185129</v>
       </c>
       <c r="Q32" t="n">
-        <v>1603.424798776587</v>
+        <v>1668.484054450839</v>
       </c>
       <c r="R32" t="n">
         <v>1700.645757933627</v>
@@ -6759,34 +6759,34 @@
         <v>34.44740769915455</v>
       </c>
       <c r="D33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="E33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="F33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="G33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="H33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="I33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="J33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="K33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="L33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="M33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="N33" t="n">
         <v>81.66668593414819</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.44740769915455</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="C34" t="n">
-        <v>34.44740769915455</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="D34" t="n">
-        <v>34.44740769915455</v>
+        <v>75.4264387561667</v>
       </c>
       <c r="E34" t="n">
-        <v>34.44740769915455</v>
+        <v>101.156353365313</v>
       </c>
       <c r="F34" t="n">
-        <v>34.44740769915455</v>
+        <v>101.156353365313</v>
       </c>
       <c r="G34" t="n">
-        <v>34.44740769915455</v>
+        <v>101.156353365313</v>
       </c>
       <c r="H34" t="n">
-        <v>34.44740769915455</v>
+        <v>101.156353365313</v>
       </c>
       <c r="I34" t="n">
-        <v>34.44740769915455</v>
+        <v>101.156353365313</v>
       </c>
       <c r="J34" t="n">
-        <v>34.44740769915455</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="K34" t="n">
-        <v>147.7878444618142</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="L34" t="n">
-        <v>147.7878444618142</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="M34" t="n">
         <v>207.8621709343247</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>827.5379026594844</v>
+        <v>827.5379026594851</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6867520190563</v>
+        <v>705.6867520190568</v>
       </c>
       <c r="D35" t="n">
-        <v>594.5324197122891</v>
+        <v>594.5324197122897</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8555334140282</v>
+        <v>455.8555334140287</v>
       </c>
       <c r="F35" t="n">
-        <v>291.9809949244041</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G35" t="n">
-        <v>120.0263557085879</v>
+        <v>120.026355708588</v>
       </c>
       <c r="H35" t="n">
-        <v>28.65512277858619</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="I35" t="n">
-        <v>28.65512277858619</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="J35" t="n">
         <v>127.5251501290002</v>
       </c>
       <c r="K35" t="n">
-        <v>482.1322945140043</v>
+        <v>281.9305173569923</v>
       </c>
       <c r="L35" t="n">
-        <v>557.6886087274239</v>
+        <v>636.5376617419964</v>
       </c>
       <c r="M35" t="n">
-        <v>646.1355299807392</v>
+        <v>991.1448061270006</v>
       </c>
       <c r="N35" t="n">
-        <v>736.708473566511</v>
+        <v>1081.717749712772</v>
       </c>
       <c r="O35" t="n">
-        <v>822.3957398609865</v>
+        <v>1167.405016007248</v>
       </c>
       <c r="P35" t="n">
-        <v>1171.525176300058</v>
+        <v>1241.52311687962</v>
       </c>
       <c r="Q35" t="n">
-        <v>1244.267076727717</v>
+        <v>1309.32633240197</v>
       </c>
       <c r="R35" t="n">
-        <v>1364.669194558241</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="S35" t="n">
         <v>1409.574980255826</v>
       </c>
       <c r="T35" t="n">
-        <v>1432.756138929309</v>
+        <v>1432.75613892931</v>
       </c>
       <c r="U35" t="n">
         <v>1426.017544074266</v>
       </c>
       <c r="V35" t="n">
-        <v>1342.066023030678</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W35" t="n">
-        <v>1236.408734060547</v>
+        <v>1236.408734060548</v>
       </c>
       <c r="X35" t="n">
-        <v>1110.054342099451</v>
+        <v>1110.054342099452</v>
       </c>
       <c r="Y35" t="n">
-        <v>967.0263764236228</v>
+        <v>967.0263764236234</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="C36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="D36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="E36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="F36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="G36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="H36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="I36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="J36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="K36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="L36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="M36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="N36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="O36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="P36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="R36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="S36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="T36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="U36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="V36" t="n">
-        <v>35.78111320680443</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="W36" t="n">
-        <v>28.65512277858619</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="X36" t="n">
-        <v>28.65512277858619</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.65512277858619</v>
+        <v>35.7811132068045</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1340.788001541958</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="C37" t="n">
-        <v>1340.788001541958</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="D37" t="n">
-        <v>1340.788001541958</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="E37" t="n">
-        <v>1340.788001541958</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="F37" t="n">
-        <v>1432.756138929309</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="G37" t="n">
-        <v>1432.756138929309</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="H37" t="n">
-        <v>1432.756138929309</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="I37" t="n">
-        <v>1432.756138929309</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="J37" t="n">
-        <v>1432.756138929309</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="K37" t="n">
-        <v>1432.756138929309</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="L37" t="n">
-        <v>1432.756138929309</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="M37" t="n">
-        <v>1432.756138929309</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="N37" t="n">
-        <v>1432.756138929309</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="O37" t="n">
-        <v>1432.756138929309</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="P37" t="n">
-        <v>1432.756138929309</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="Q37" t="n">
-        <v>1432.756138929309</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="R37" t="n">
-        <v>1432.756138929309</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="S37" t="n">
-        <v>1432.756138929309</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.756138929309</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="U37" t="n">
-        <v>1390.666927184838</v>
+        <v>78.53404842146703</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.093805278935</v>
+        <v>70.96092651556349</v>
       </c>
       <c r="W37" t="n">
-        <v>1340.788001541958</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="X37" t="n">
-        <v>1340.788001541958</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="Y37" t="n">
-        <v>1340.788001541958</v>
+        <v>28.6551227785862</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>827.5379026594849</v>
+        <v>827.5379026594848</v>
       </c>
       <c r="C38" t="n">
-        <v>705.6867520190566</v>
+        <v>705.6867520190564</v>
       </c>
       <c r="D38" t="n">
-        <v>594.5324197122895</v>
+        <v>594.5324197122892</v>
       </c>
       <c r="E38" t="n">
-        <v>455.8555334140286</v>
+        <v>455.8555334140283</v>
       </c>
       <c r="F38" t="n">
-        <v>291.9809949244045</v>
+        <v>291.9809949244041</v>
       </c>
       <c r="G38" t="n">
-        <v>120.0263557085879</v>
+        <v>120.026355708588</v>
       </c>
       <c r="H38" t="n">
         <v>28.6551227785862</v>
       </c>
       <c r="I38" t="n">
-        <v>78.79010407355136</v>
+        <v>78.79010407355129</v>
       </c>
       <c r="J38" t="n">
-        <v>78.79010407355136</v>
+        <v>177.6601314239653</v>
       </c>
       <c r="K38" t="n">
-        <v>156.9172149808982</v>
+        <v>255.7872423313121</v>
       </c>
       <c r="L38" t="n">
-        <v>232.4735291943178</v>
+        <v>610.3943867163163</v>
       </c>
       <c r="M38" t="n">
-        <v>587.0806735793221</v>
+        <v>698.8413079696315</v>
       </c>
       <c r="N38" t="n">
-        <v>941.6878179643263</v>
+        <v>1053.448452354636</v>
       </c>
       <c r="O38" t="n">
-        <v>1027.375084258802</v>
+        <v>1139.135718649111</v>
       </c>
       <c r="P38" t="n">
-        <v>1076.237061823899</v>
+        <v>1241.52311687962</v>
       </c>
       <c r="Q38" t="n">
-        <v>1354.232118099555</v>
+        <v>1309.32633240197</v>
       </c>
       <c r="R38" t="n">
-        <v>1409.574980255826</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="S38" t="n">
         <v>1409.574980255826</v>
@@ -7217,7 +7217,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y38" t="n">
-        <v>967.0263764236233</v>
+        <v>967.0263764236232</v>
       </c>
     </row>
     <row r="39">
@@ -7266,28 +7266,28 @@
         <v>28.6551227785862</v>
       </c>
       <c r="O39" t="n">
-        <v>28.6551227785862</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="P39" t="n">
-        <v>28.6551227785862</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.6551227785862</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="R39" t="n">
-        <v>28.6551227785862</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="S39" t="n">
-        <v>35.78111320680444</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="T39" t="n">
-        <v>35.78111320680444</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="U39" t="n">
-        <v>35.78111320680444</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="V39" t="n">
-        <v>35.78111320680444</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="W39" t="n">
         <v>28.6551227785862</v>
@@ -7315,58 +7315,58 @@
         <v>28.6551227785862</v>
       </c>
       <c r="E40" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="F40" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="G40" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="H40" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="I40" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="J40" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="K40" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="L40" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="M40" t="n">
-        <v>120.6232601659381</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="N40" t="n">
-        <v>120.6232601659381</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="O40" t="n">
-        <v>120.6232601659381</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="P40" t="n">
-        <v>120.6232601659381</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.6232601659381</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="R40" t="n">
-        <v>120.6232601659381</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="S40" t="n">
-        <v>120.6232601659381</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="T40" t="n">
-        <v>120.6232601659381</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="U40" t="n">
-        <v>78.53404842146692</v>
+        <v>78.53404842146703</v>
       </c>
       <c r="V40" t="n">
-        <v>70.96092651556343</v>
+        <v>70.96092651556349</v>
       </c>
       <c r="W40" t="n">
         <v>28.6551227785862</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594849</v>
+        <v>827.5379026594846</v>
       </c>
       <c r="C41" t="n">
-        <v>705.6867520190565</v>
+        <v>705.6867520190564</v>
       </c>
       <c r="D41" t="n">
         <v>594.5324197122893</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8555334140285</v>
+        <v>455.8555334140287</v>
       </c>
       <c r="F41" t="n">
-        <v>291.9809949244043</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G41" t="n">
         <v>120.0263557085879</v>
@@ -7406,31 +7406,31 @@
         <v>28.6551227785862</v>
       </c>
       <c r="I41" t="n">
-        <v>78.79010407355136</v>
+        <v>78.79010407355135</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7302511010183</v>
+        <v>177.6601314239654</v>
       </c>
       <c r="K41" t="n">
-        <v>640.3373954860225</v>
+        <v>532.2672758089695</v>
       </c>
       <c r="L41" t="n">
-        <v>715.8937096994421</v>
+        <v>607.8235900223891</v>
       </c>
       <c r="M41" t="n">
-        <v>715.8937096994421</v>
+        <v>936.999855886586</v>
       </c>
       <c r="N41" t="n">
-        <v>806.4666532852139</v>
+        <v>936.999855886586</v>
       </c>
       <c r="O41" t="n">
-        <v>892.1539195796894</v>
+        <v>1022.687122181062</v>
       </c>
       <c r="P41" t="n">
-        <v>966.272020452062</v>
+        <v>1031.331276126314</v>
       </c>
       <c r="Q41" t="n">
-        <v>1244.267076727718</v>
+        <v>1309.32633240197</v>
       </c>
       <c r="R41" t="n">
         <v>1364.669194558242</v>
@@ -7454,7 +7454,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236232</v>
+        <v>967.0263764236231</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="C42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="D42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="E42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="F42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="G42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="H42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="J42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="K42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="L42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="M42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="N42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="O42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="P42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="R42" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="S42" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="T42" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="V42" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="W42" t="n">
         <v>28.6551227785862</v>
@@ -7533,7 +7533,7 @@
         <v>28.6551227785862</v>
       </c>
       <c r="Y42" t="n">
-        <v>35.78111320680444</v>
+        <v>28.6551227785862</v>
       </c>
     </row>
     <row r="43">
@@ -7555,37 +7555,37 @@
         <v>28.6551227785862</v>
       </c>
       <c r="F43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="G43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="H43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="I43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="J43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="K43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="L43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="M43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="N43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="O43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="P43" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659381</v>
       </c>
       <c r="Q43" t="n">
         <v>120.6232601659381</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.5379026594846</v>
+        <v>827.537902659485</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190563</v>
+        <v>705.6867520190567</v>
       </c>
       <c r="D44" t="n">
-        <v>594.5324197122891</v>
+        <v>594.5324197122895</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8555334140282</v>
+        <v>455.8555334140287</v>
       </c>
       <c r="F44" t="n">
-        <v>291.980994924404</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G44" t="n">
         <v>120.0263557085879</v>
@@ -7643,31 +7643,31 @@
         <v>28.6551227785862</v>
       </c>
       <c r="I44" t="n">
-        <v>78.79010407355136</v>
+        <v>78.79010407355135</v>
       </c>
       <c r="J44" t="n">
-        <v>345.0657804443184</v>
+        <v>78.79010407355135</v>
       </c>
       <c r="K44" t="n">
-        <v>699.6729248293227</v>
+        <v>156.9172149808982</v>
       </c>
       <c r="L44" t="n">
-        <v>775.2292390427423</v>
+        <v>511.5243593659023</v>
       </c>
       <c r="M44" t="n">
-        <v>863.6761602960576</v>
+        <v>812.7978716222433</v>
       </c>
       <c r="N44" t="n">
-        <v>954.2491038818293</v>
+        <v>1167.405016007247</v>
       </c>
       <c r="O44" t="n">
-        <v>1039.936370176305</v>
+        <v>1167.405016007247</v>
       </c>
       <c r="P44" t="n">
-        <v>1039.936370176305</v>
+        <v>1241.52311687962</v>
       </c>
       <c r="Q44" t="n">
-        <v>1244.267076727718</v>
+        <v>1309.32633240197</v>
       </c>
       <c r="R44" t="n">
         <v>1364.669194558242</v>
@@ -7691,7 +7691,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236238</v>
+        <v>967.0263764236234</v>
       </c>
     </row>
     <row r="45">
@@ -7740,28 +7740,28 @@
         <v>28.6551227785862</v>
       </c>
       <c r="O45" t="n">
-        <v>28.6551227785862</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="P45" t="n">
-        <v>28.6551227785862</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.6551227785862</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="R45" t="n">
-        <v>28.6551227785862</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="S45" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="T45" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="U45" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="V45" t="n">
-        <v>35.78111320680444</v>
+        <v>35.78111320680443</v>
       </c>
       <c r="W45" t="n">
         <v>28.6551227785862</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.6551227785862</v>
+        <v>54.45016607062607</v>
       </c>
       <c r="C46" t="n">
-        <v>28.6551227785862</v>
+        <v>54.45016607062607</v>
       </c>
       <c r="D46" t="n">
-        <v>28.6551227785862</v>
+        <v>54.45016607062607</v>
       </c>
       <c r="E46" t="n">
-        <v>79.55954737626837</v>
+        <v>54.45016607062607</v>
       </c>
       <c r="F46" t="n">
-        <v>79.55954737626837</v>
+        <v>54.45016607062607</v>
       </c>
       <c r="G46" t="n">
-        <v>79.55954737626837</v>
+        <v>54.45016607062607</v>
       </c>
       <c r="H46" t="n">
-        <v>79.55954737626837</v>
+        <v>54.45016607062607</v>
       </c>
       <c r="I46" t="n">
-        <v>79.55954737626837</v>
+        <v>54.45016607062607</v>
       </c>
       <c r="J46" t="n">
-        <v>79.55954737626837</v>
+        <v>103.2845960674335</v>
       </c>
       <c r="K46" t="n">
-        <v>79.55954737626837</v>
+        <v>103.2845960674335</v>
       </c>
       <c r="L46" t="n">
-        <v>79.55954737626837</v>
+        <v>103.2845960674335</v>
       </c>
       <c r="M46" t="n">
-        <v>79.55954737626837</v>
+        <v>103.2845960674335</v>
       </c>
       <c r="N46" t="n">
-        <v>79.55954737626837</v>
+        <v>103.2845960674335</v>
       </c>
       <c r="O46" t="n">
-        <v>79.55954737626837</v>
+        <v>103.2845960674335</v>
       </c>
       <c r="P46" t="n">
-        <v>79.55954737626837</v>
+        <v>103.2845960674335</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.55954737626837</v>
+        <v>103.2845960674335</v>
       </c>
       <c r="R46" t="n">
-        <v>79.55954737626837</v>
+        <v>103.2845960674335</v>
       </c>
       <c r="S46" t="n">
         <v>103.2845960674335</v>
@@ -7849,7 +7849,7 @@
         <v>28.6551227785862</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.6551227785862</v>
+        <v>54.45016607062607</v>
       </c>
     </row>
   </sheetData>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>182.4826256140636</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>103.5527095429427</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K14" t="n">
-        <v>165.7239789931988</v>
+        <v>79.07394152870123</v>
       </c>
       <c r="L14" t="n">
-        <v>168.3207433304991</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>49.23021983873066</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>25.58368271612698</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L16" t="n">
         <v>106.3821278759461</v>
@@ -9097,10 +9097,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>57.45532642664764</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>377.688398724345</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>364.6675835325313</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>193.7436939643736</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,13 +9954,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>84.19302733439822</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10039,16 +10039,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>48.98370137312371</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>364.6675835325312</v>
       </c>
       <c r="N29" t="n">
-        <v>332.3796095821927</v>
+        <v>163.4279003050751</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>367.4551137939856</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,13 +10191,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>65.37783023754822</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10285,10 +10285,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>155.2999281386852</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>362.5200862270196</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>367.4551137939856</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>254.84490309784</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>159.9523216331753</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10513,16 +10513,16 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M34" t="n">
-        <v>169.5549808574215</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N34" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>28.98587611340398</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P34" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>77.04874375822757</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>281.8695254258431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>268.8487102340292</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.7892278451503</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.77814235254121</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10826,22 +10826,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>281.8695254258431</v>
       </c>
       <c r="M38" t="n">
-        <v>268.8487102340292</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>354.0636088551528</v>
+        <v>266.7012129285176</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>28.55484581629949</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>95.38663651685857</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10981,10 +10981,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>74.43259551051538</v>
       </c>
       <c r="L40" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1617370475281</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>279.2727610885428</v>
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>243.1609541524057</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>40.71896999562637</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11224,16 +11224,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>279.2727610885428</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>281.869525425843</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>214.9763545485108</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>266.7012129285176</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>82.96298457089789</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.9065565950128</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>88.90283864918121</v>
+        <v>38.43376991185951</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11461,16 +11461,16 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N46" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O46" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P46" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.614404833994</v>
+        <v>96.21084332688949</v>
       </c>
       <c r="C11" t="n">
-        <v>87.38039796606347</v>
+        <v>151.1534549415209</v>
       </c>
       <c r="D11" t="n">
         <v>140.5636047911964</v>
       </c>
       <c r="E11" t="n">
-        <v>167.8109332427752</v>
+        <v>95.40737173567069</v>
       </c>
       <c r="F11" t="n">
-        <v>120.3530474051204</v>
+        <v>192.7566089122248</v>
       </c>
       <c r="G11" t="n">
-        <v>128.3523471240505</v>
+        <v>200.7559086311549</v>
       </c>
       <c r="H11" t="n">
         <v>120.9783364081987</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099344</v>
+        <v>7.105504016099315</v>
       </c>
       <c r="U11" t="n">
-        <v>37.19202471399043</v>
+        <v>37.19202471399041</v>
       </c>
       <c r="V11" t="n">
-        <v>113.6328216406483</v>
+        <v>49.85976466519075</v>
       </c>
       <c r="W11" t="n">
-        <v>62.71797038082201</v>
+        <v>62.71797038082192</v>
       </c>
       <c r="X11" t="n">
-        <v>155.6116638489825</v>
+        <v>155.6116638489824</v>
       </c>
       <c r="Y11" t="n">
         <v>172.118501826567</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.614404833994</v>
+        <v>96.21084332688957</v>
       </c>
       <c r="C14" t="n">
-        <v>131.6779266961532</v>
+        <v>151.153454941521</v>
       </c>
       <c r="D14" t="n">
-        <v>140.5636047911964</v>
+        <v>68.16004328409196</v>
       </c>
       <c r="E14" t="n">
-        <v>167.8109332427752</v>
+        <v>167.8109332427753</v>
       </c>
       <c r="F14" t="n">
         <v>192.7566089122249</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.105504016099401</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.19202471399049</v>
       </c>
       <c r="V14" t="n">
-        <v>113.6328216406483</v>
+        <v>49.85976466519077</v>
       </c>
       <c r="W14" t="n">
-        <v>62.71797038082201</v>
+        <v>135.1215318879265</v>
       </c>
       <c r="X14" t="n">
         <v>83.20810234187803</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.71494031946258</v>
+        <v>172.1185018265671</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797396.3979624421</v>
+        <v>797396.3979624422</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797396.397962442</v>
+        <v>797396.3979624422</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>989878.722194775</v>
+        <v>989878.7221947752</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>989878.7221947752</v>
+        <v>989878.722194775</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>989878.7221947751</v>
+        <v>989878.7221947752</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>948525.3526532298</v>
+        <v>948525.35265323</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>948525.3526532298</v>
+        <v>948525.35265323</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>948525.3526532302</v>
+        <v>948525.3526532298</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26317,13 @@
         <v>532529.6201660751</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="E2" t="n">
         <v>456976.1415905931</v>
       </c>
       <c r="F2" t="n">
-        <v>456976.1415905931</v>
+        <v>456976.141590593</v>
       </c>
       <c r="G2" t="n">
         <v>533677.1504117841</v>
@@ -26332,25 +26332,25 @@
         <v>533677.1504117841</v>
       </c>
       <c r="I2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="J2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="K2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="L2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="M2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="N2" t="n">
         <v>533677.1504117841</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="K2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="L2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="M2" t="n">
-        <v>533677.1504117843</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533677.1504117842</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533677.150411784</v>
       </c>
       <c r="P2" t="n">
         <v>533677.1504117841</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106979.8107928507</v>
+        <v>106979.8107928508</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163718.1536871232</v>
+        <v>163718.153687123</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>106979.8107928507</v>
+        <v>106979.8107928508</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311814</v>
+        <v>18732.24943311805</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361802</v>
+        <v>70000.14188361804</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,7 +26445,7 @@
         <v>440899.9009590467</v>
       </c>
       <c r="L4" t="n">
-        <v>440899.9009590467</v>
+        <v>440899.9009590468</v>
       </c>
       <c r="M4" t="n">
         <v>436970.659685421</v>
@@ -26482,13 +26482,13 @@
         <v>24720.58373795486</v>
       </c>
       <c r="G5" t="n">
-        <v>35962.69087988507</v>
+        <v>35962.69087988508</v>
       </c>
       <c r="H5" t="n">
         <v>35962.69087988508</v>
       </c>
       <c r="I5" t="n">
-        <v>35962.69087988507</v>
+        <v>35962.69087988508</v>
       </c>
       <c r="J5" t="n">
         <v>47095.82966680983</v>
@@ -26503,13 +26503,13 @@
         <v>44662.19497416887</v>
       </c>
       <c r="N5" t="n">
-        <v>44662.19497416889</v>
+        <v>44662.19497416887</v>
       </c>
       <c r="O5" t="n">
-        <v>44662.19497416889</v>
+        <v>44662.19497416888</v>
       </c>
       <c r="P5" t="n">
-        <v>44662.19497416889</v>
+        <v>44662.19497416888</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31286.06023434373</v>
+        <v>31281.64665647562</v>
       </c>
       <c r="C6" t="n">
-        <v>31286.06023434384</v>
+        <v>31281.64665647573</v>
       </c>
       <c r="D6" t="n">
-        <v>31286.06023434373</v>
+        <v>31281.64665647573</v>
       </c>
       <c r="E6" t="n">
-        <v>-212755.3171507088</v>
+        <v>-213050.3210307903</v>
       </c>
       <c r="F6" t="n">
-        <v>65571.14751617021</v>
+        <v>65276.14363608865</v>
       </c>
       <c r="G6" t="n">
-        <v>-41107.51845123307</v>
+        <v>-41107.51845123313</v>
       </c>
       <c r="H6" t="n">
         <v>65872.29234161766</v>
       </c>
       <c r="I6" t="n">
-        <v>65872.29234161766</v>
+        <v>65872.29234161755</v>
       </c>
       <c r="J6" t="n">
-        <v>-118036.7339011955</v>
+        <v>-118036.7339011952</v>
       </c>
       <c r="K6" t="n">
-        <v>45681.41978592756</v>
+        <v>45681.41978592802</v>
       </c>
       <c r="L6" t="n">
-        <v>-61298.39100692282</v>
+        <v>-61298.39100692323</v>
       </c>
       <c r="M6" t="n">
-        <v>33312.0463190763</v>
+        <v>33312.04631907624</v>
       </c>
       <c r="N6" t="n">
-        <v>52044.29575219432</v>
+        <v>52044.29575219416</v>
       </c>
       <c r="O6" t="n">
-        <v>-17955.846131424</v>
+        <v>-17955.8461314237</v>
       </c>
       <c r="P6" t="n">
-        <v>52044.2957521942</v>
+        <v>52044.29575219415</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>214.1194368294866</v>
       </c>
       <c r="F2" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="G2" t="n">
         <v>347.84420032055</v>
@@ -26707,7 +26707,7 @@
         <v>347.84420032055</v>
       </c>
       <c r="J2" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K2" t="n">
         <v>221.224940845586</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="F4" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="G4" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="H4" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="I4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="J4" t="n">
         <v>430.5925962394319</v>
@@ -26820,7 +26820,7 @@
         <v>430.5925962394319</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1890347323273</v>
+        <v>358.1890347323275</v>
       </c>
       <c r="N4" t="n">
         <v>358.1890347323275</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452252</v>
+        <v>87.50017735452246</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139767</v>
+        <v>23.41531179139756</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452252</v>
+        <v>87.50017735452255</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>358.1890347323276</v>
+        <v>358.1890347323275</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452252</v>
+        <v>87.50017735452246</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28108,22 +28108,22 @@
         <v>214.1194368294866</v>
       </c>
       <c r="I11" t="n">
-        <v>193.998857389544</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="J11" t="n">
-        <v>144.7715381416158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>165.7239789931989</v>
+      </c>
+      <c r="L11" t="n">
         <v>214.1194368294866</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
+        <v>206.2646760132455</v>
+      </c>
+      <c r="N11" t="n">
         <v>214.1194368294866</v>
-      </c>
-      <c r="N11" t="n">
-        <v>199.0841073589019</v>
       </c>
       <c r="O11" t="n">
         <v>214.1194368294866</v>
@@ -28135,10 +28135,10 @@
         <v>214.1194368294866</v>
       </c>
       <c r="R11" t="n">
+        <v>123.0219517980703</v>
+      </c>
+      <c r="S11" t="n">
         <v>214.1194368294866</v>
-      </c>
-      <c r="S11" t="n">
-        <v>199.280873144474</v>
       </c>
       <c r="T11" t="n">
         <v>214.1194368294866</v>
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>214.1194368294866</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -28187,28 +28187,28 @@
         <v>110.026926034905</v>
       </c>
       <c r="I12" t="n">
-        <v>98.6320255534381</v>
+        <v>91.64914299614301</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K12" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L12" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M12" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N12" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18866638734512</v>
+        <v>90.95985935159808</v>
       </c>
       <c r="P12" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q12" t="n">
         <v>110.7916225242058</v>
@@ -28220,7 +28220,7 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T12" t="n">
-        <v>214.1194368294866</v>
+        <v>199.2430083373</v>
       </c>
       <c r="U12" t="n">
         <v>214.1194368294866</v>
@@ -28248,13 +28248,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>199.6539373470416</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>204.3720246712282</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -28278,16 +28278,16 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>181.2774045135054</v>
       </c>
       <c r="N13" t="n">
-        <v>170.7517330173245</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>183.762287643582</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P13" t="n">
-        <v>114.5411443216187</v>
+        <v>10.98843477867605</v>
       </c>
       <c r="Q13" t="n">
         <v>135.4516218226007</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="C14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="D14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="E14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="F14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="H14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="I14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="J14" t="n">
-        <v>214.1194368294866</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>86.65003746449763</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="M14" t="n">
-        <v>214.1194368294866</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N14" t="n">
-        <v>213.3663840952752</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="O14" t="n">
-        <v>108.8572385614089</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="P14" t="n">
-        <v>169.7734840790314</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="R14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="S14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="T14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="U14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="V14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="W14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="X14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
     </row>
     <row r="15">
@@ -28430,22 +28430,22 @@
         <v>105.2328625520064</v>
       </c>
       <c r="K15" t="n">
-        <v>100.9154559462058</v>
+        <v>155.4845916831204</v>
       </c>
       <c r="L15" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M15" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N15" t="n">
-        <v>141.3127436892858</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O15" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P15" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q15" t="n">
         <v>110.7916225242058</v>
@@ -28457,16 +28457,16 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T15" t="n">
-        <v>199.2430083373</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="U15" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="V15" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="W15" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>214.1194368294866</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -28491,7 +28491,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -28503,55 +28503,55 @@
         <v>160.5226664330617</v>
       </c>
       <c r="I16" t="n">
-        <v>214.1194368294866</v>
+        <v>149.6851312728186</v>
       </c>
       <c r="J16" t="n">
         <v>113.4412867354731</v>
       </c>
       <c r="K16" t="n">
-        <v>179.1432126934381</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>160.4089339117294</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N16" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>186.9447058287232</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.4516218226007</v>
+        <v>172.5768253952018</v>
       </c>
       <c r="R16" t="n">
-        <v>168.6732614754589</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="S16" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="T16" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="U16" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="V16" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="W16" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="X16" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.1194368294866</v>
+        <v>214.1194368294865</v>
       </c>
     </row>
     <row r="17">
@@ -28588,16 +28588,16 @@
         <v>144.7715381416158</v>
       </c>
       <c r="K17" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L17" t="n">
-        <v>240.7243048376035</v>
+        <v>225.0524813302093</v>
       </c>
       <c r="M17" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N17" t="n">
-        <v>153.1524308331736</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O17" t="n">
         <v>158.0874584001396</v>
@@ -28606,10 +28606,10 @@
         <v>169.7734840790314</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.152156149761</v>
+        <v>248.5557176568655</v>
       </c>
       <c r="R17" t="n">
-        <v>225.3781678203479</v>
+        <v>188.7383716710528</v>
       </c>
       <c r="S17" t="n">
         <v>199.280873144474</v>
@@ -28621,7 +28621,7 @@
         <v>323.7150230505815</v>
       </c>
       <c r="V17" t="n">
-        <v>347.84420032055</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>347.84420032055</v>
@@ -28670,19 +28670,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L18" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M18" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N18" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O18" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P18" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q18" t="n">
         <v>110.7916225242058</v>
@@ -28755,10 +28755,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N19" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O19" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P19" t="n">
         <v>114.5411443216187</v>
@@ -28822,43 +28822,43 @@
         <v>193.998857389544</v>
       </c>
       <c r="J20" t="n">
-        <v>144.7715381416158</v>
+        <v>217.1750996487203</v>
       </c>
       <c r="K20" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L20" t="n">
-        <v>168.3207433304991</v>
+        <v>225.0524813302093</v>
       </c>
       <c r="M20" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N20" t="n">
-        <v>153.1524308331736</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O20" t="n">
-        <v>158.0874584001396</v>
+        <v>230.491019907244</v>
       </c>
       <c r="P20" t="n">
-        <v>206.4132802283265</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.152156149761</v>
+        <v>248.5557176568655</v>
       </c>
       <c r="R20" t="n">
         <v>188.7383716710528</v>
       </c>
       <c r="S20" t="n">
-        <v>271.6844346515784</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T20" t="n">
-        <v>293.6285023526904</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7150230505815</v>
+        <v>251.311461543477</v>
       </c>
       <c r="V20" t="n">
-        <v>347.84420032055</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>347.84420032055</v>
@@ -28907,19 +28907,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L21" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M21" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N21" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O21" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P21" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q21" t="n">
         <v>110.7916225242058</v>
@@ -28992,10 +28992,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N22" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O22" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P22" t="n">
         <v>114.5411443216187</v>
@@ -29053,31 +29053,31 @@
         <v>347.84420032055</v>
       </c>
       <c r="H23" t="n">
-        <v>335.0977732376853</v>
+        <v>347.84420032055</v>
       </c>
       <c r="I23" t="n">
-        <v>263.4770224721188</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J23" t="n">
         <v>144.7715381416158</v>
       </c>
       <c r="K23" t="n">
-        <v>238.1275405003032</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L23" t="n">
-        <v>240.7243048376034</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M23" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N23" t="n">
-        <v>153.1524308331736</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O23" t="n">
-        <v>158.0874584001396</v>
+        <v>194.7272545494346</v>
       </c>
       <c r="P23" t="n">
-        <v>169.7734840790314</v>
+        <v>242.1770455861359</v>
       </c>
       <c r="Q23" t="n">
         <v>176.152156149761</v>
@@ -29086,16 +29086,16 @@
         <v>188.7383716710528</v>
       </c>
       <c r="S23" t="n">
-        <v>199.280873144474</v>
+        <v>271.6844346515785</v>
       </c>
       <c r="T23" t="n">
-        <v>293.6285023526902</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U23" t="n">
-        <v>251.311461543477</v>
+        <v>323.7150230505815</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>347.84420032055</v>
       </c>
       <c r="W23" t="n">
         <v>347.84420032055</v>
@@ -29144,19 +29144,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L24" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M24" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N24" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O24" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P24" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q24" t="n">
         <v>110.7916225242058</v>
@@ -29229,10 +29229,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N25" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O25" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P25" t="n">
         <v>114.5411443216187</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="C26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="D26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="E26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="F26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="G26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="H26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="I26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J26" t="n">
-        <v>221.224940845586</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>100.4139752146134</v>
+        <v>181.3146508940222</v>
       </c>
       <c r="L26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="N26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="O26" t="n">
-        <v>221.224940845586</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="R26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y26" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
     </row>
     <row r="27">
@@ -29360,7 +29360,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>205.3413210968087</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -29378,19 +29378,19 @@
         <v>105.2328625520064</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N27" t="n">
-        <v>119.5634201015924</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -29408,13 +29408,13 @@
         <v>199.2430083373</v>
       </c>
       <c r="U27" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V27" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W27" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -29430,19 +29430,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>206.5850470421821</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="E28" t="n">
-        <v>221.224940845586</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="G28" t="n">
         <v>167.7992659963099</v>
@@ -29463,16 +29463,16 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O28" t="n">
-        <v>211.7341754477333</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>135.4516218226007</v>
@@ -29484,19 +29484,19 @@
         <v>220.675556989342</v>
       </c>
       <c r="T28" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U28" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V28" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W28" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X28" t="n">
-        <v>221.224940845586</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -29533,16 +29533,16 @@
         <v>221.224940845586</v>
       </c>
       <c r="J29" t="n">
-        <v>221.224940845586</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K29" t="n">
         <v>221.224940845586</v>
       </c>
       <c r="L29" t="n">
-        <v>119.3370419573754</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>221.224940845586</v>
       </c>
       <c r="N29" t="n">
         <v>221.224940845586</v>
@@ -29612,25 +29612,25 @@
         <v>91.64914299614301</v>
       </c>
       <c r="J30" t="n">
-        <v>105.2328625520064</v>
+        <v>152.929103193414</v>
       </c>
       <c r="K30" t="n">
-        <v>148.6116965876134</v>
+        <v>35.53762570865759</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M30" t="n">
-        <v>84.19302733439822</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O30" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P30" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q30" t="n">
         <v>110.7916225242058</v>
@@ -29670,7 +29670,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>221.224940845586</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -29688,7 +29688,7 @@
         <v>160.5226664330617</v>
       </c>
       <c r="I31" t="n">
-        <v>149.6851312728186</v>
+        <v>156.0306260664931</v>
       </c>
       <c r="J31" t="n">
         <v>113.4412867354731</v>
@@ -29697,22 +29697,22 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L31" t="n">
-        <v>106.3821278759461</v>
+        <v>221.224940845586</v>
       </c>
       <c r="M31" t="n">
-        <v>221.224940845586</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N31" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O31" t="n">
-        <v>174.174055807565</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.10866344484918</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R31" t="n">
         <v>168.6732614754589</v>
@@ -29776,19 +29776,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
-        <v>221.2249408455859</v>
+        <v>194.5937848641442</v>
       </c>
       <c r="O32" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q32" t="n">
         <v>221.2249408455859</v>
@@ -29831,7 +29831,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>195.1413062060465</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -29849,25 +29849,25 @@
         <v>91.64914299614301</v>
       </c>
       <c r="J33" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N33" t="n">
-        <v>119.5634201015926</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O33" t="n">
-        <v>88.18866638734512</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>110.7916225242058</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29913,7 +29913,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>172.4237753830806</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -29928,10 +29928,10 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J34" t="n">
-        <v>113.4412867354731</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K34" t="n">
-        <v>221.2249408455859</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,13 +29940,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O34" t="n">
-        <v>82.37285002307357</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q34" t="n">
         <v>135.4516218226007</v>
@@ -30010,7 +30010,7 @@
         <v>244.6402526369835</v>
       </c>
       <c r="K35" t="n">
-        <v>199.7676011543614</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="L35" t="n">
         <v>244.6402526369835</v>
@@ -30028,7 +30028,7 @@
         <v>244.6402526369835</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.31383258850229</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="R35" t="n">
         <v>244.6402526369835</v>
@@ -30083,7 +30083,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I36" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755809</v>
       </c>
       <c r="J36" t="n">
         <v>105.2328625520064</v>
@@ -30092,25 +30092,25 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>91.3909974639116</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>71.86717946018487</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>88.18866638734512</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>110.7916225242058</v>
       </c>
       <c r="R36" t="n">
-        <v>131.4816003936965</v>
+        <v>85.95993058237569</v>
       </c>
       <c r="S36" t="n">
         <v>167.4356349622666</v>
@@ -30131,7 +30131,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>212.8806659068178</v>
       </c>
     </row>
     <row r="37">
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>238.3181564950038</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.7992659963099</v>
@@ -30168,7 +30168,7 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L37" t="n">
         <v>106.3821278759461</v>
@@ -30177,10 +30177,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N37" t="n">
-        <v>98.34817151022011</v>
+        <v>191.245279982293</v>
       </c>
       <c r="O37" t="n">
-        <v>111.3587261364775</v>
+        <v>14.58058378393634</v>
       </c>
       <c r="P37" t="n">
         <v>114.5411443216187</v>
@@ -30244,7 +30244,7 @@
         <v>244.6402526369835</v>
       </c>
       <c r="J38" t="n">
-        <v>144.7715381416158</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="K38" t="n">
         <v>244.6402526369835</v>
@@ -30256,13 +30256,13 @@
         <v>244.6402526369835</v>
       </c>
       <c r="N38" t="n">
-        <v>157.2778567103482</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="O38" t="n">
         <v>244.6402526369835</v>
       </c>
       <c r="P38" t="n">
-        <v>219.1290169730689</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Q38" t="n">
         <v>244.6402526369835</v>
@@ -30271,7 +30271,7 @@
         <v>244.6402526369835</v>
       </c>
       <c r="S38" t="n">
-        <v>199.280873144474</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T38" t="n">
         <v>244.6402526369835</v>
@@ -30323,34 +30323,34 @@
         <v>91.64914299614301</v>
       </c>
       <c r="J39" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O39" t="n">
-        <v>88.18866638734512</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>131.4816003936965</v>
       </c>
       <c r="S39" t="n">
-        <v>174.6336050917799</v>
+        <v>167.4356349622666</v>
       </c>
       <c r="T39" t="n">
         <v>199.2430083373</v>
@@ -30387,7 +30387,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>239.331071118642</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30405,19 +30405,19 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7396511863337</v>
+        <v>32.30705567581833</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M40" t="n">
-        <v>201.7709514784735</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N40" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O40" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P40" t="n">
         <v>114.5411443216187</v>
@@ -30490,16 +30490,16 @@
         <v>244.6402526369835</v>
       </c>
       <c r="M41" t="n">
-        <v>155.2999281386852</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="N41" t="n">
-        <v>244.6402526369835</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>244.6402526369835</v>
       </c>
       <c r="P41" t="n">
-        <v>244.6402526369835</v>
+        <v>178.5049527105999</v>
       </c>
       <c r="Q41" t="n">
         <v>244.6402526369835</v>
@@ -30566,22 +30566,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
-        <v>48.18386865355483</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N42" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O42" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P42" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>117.9895926537192</v>
       </c>
       <c r="R42" t="n">
         <v>85.95993058237569</v>
@@ -30605,7 +30605,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>212.8806659068177</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30627,7 +30627,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>238.3181564950039</v>
       </c>
       <c r="G43" t="n">
         <v>167.7992659963099</v>
@@ -30639,7 +30639,7 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J43" t="n">
-        <v>79.80504541274973</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K43" t="n">
         <v>106.7396511863337</v>
@@ -30648,19 +30648,19 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q43" t="n">
-        <v>228.3487302946733</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R43" t="n">
         <v>168.6732614754589</v>
@@ -30718,7 +30718,7 @@
         <v>244.6402526369835</v>
       </c>
       <c r="J44" t="n">
-        <v>244.6402526369835</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K44" t="n">
         <v>244.6402526369835</v>
@@ -30733,10 +30733,10 @@
         <v>244.6402526369835</v>
       </c>
       <c r="O44" t="n">
+        <v>158.0874584001396</v>
+      </c>
+      <c r="P44" t="n">
         <v>244.6402526369835</v>
-      </c>
-      <c r="P44" t="n">
-        <v>86.81049950813356</v>
       </c>
       <c r="Q44" t="n">
         <v>244.6402526369835</v>
@@ -30803,19 +30803,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.46906873732172</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N45" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734512</v>
+        <v>95.3866365168585</v>
       </c>
       <c r="P45" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q45" t="n">
         <v>110.7916225242058</v>
@@ -30824,7 +30824,7 @@
         <v>131.4816003936965</v>
       </c>
       <c r="S45" t="n">
-        <v>174.6336050917799</v>
+        <v>167.4356349622666</v>
       </c>
       <c r="T45" t="n">
         <v>199.2430083373</v>
@@ -30861,7 +30861,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>197.8525733512986</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30876,7 +30876,7 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J46" t="n">
-        <v>113.4412867354731</v>
+        <v>162.7689938029553</v>
       </c>
       <c r="K46" t="n">
         <v>106.7396511863337</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q46" t="n">
         <v>135.4516218226007</v>
@@ -30903,7 +30903,7 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S46" t="n">
-        <v>244.6402526369835</v>
+        <v>220.675556989342</v>
       </c>
       <c r="T46" t="n">
         <v>244.6402526369835</v>
@@ -30921,7 +30921,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H11" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I11" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J11" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K11" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L11" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M11" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O11" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P11" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R11" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T11" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H12" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I12" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J12" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K12" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L12" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M12" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O12" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P12" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R12" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S12" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H13" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I13" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J13" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K13" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L13" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N13" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O13" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P13" t="n">
         <v>23.18685972752887</v>
@@ -31941,13 +31941,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R13" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S13" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T13" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U13" t="n">
         <v>0.01045709248084587</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H14" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I14" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J14" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K14" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L14" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M14" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N14" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O14" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P14" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R14" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T14" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H15" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I15" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J15" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K15" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L15" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M15" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O15" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P15" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R15" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S15" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H16" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I16" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J16" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K16" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L16" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N16" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O16" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P16" t="n">
         <v>23.18685972752887</v>
@@ -32178,13 +32178,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R16" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S16" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T16" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U16" t="n">
         <v>0.01045709248084587</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H17" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I17" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J17" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K17" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L17" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M17" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N17" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O17" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P17" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R17" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T17" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H18" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I18" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J18" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K18" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L18" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M18" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O18" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P18" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R18" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S18" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H19" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I19" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J19" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K19" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L19" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N19" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O19" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P19" t="n">
         <v>23.18685972752887</v>
@@ -32415,13 +32415,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R19" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S19" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T19" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U19" t="n">
         <v>0.01045709248084587</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H20" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I20" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J20" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K20" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L20" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M20" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N20" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O20" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P20" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R20" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T20" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H21" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I21" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J21" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K21" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L21" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M21" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O21" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P21" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R21" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S21" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H22" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I22" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J22" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K22" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L22" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N22" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O22" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P22" t="n">
         <v>23.18685972752887</v>
@@ -32652,13 +32652,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R22" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S22" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T22" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U22" t="n">
         <v>0.01045709248084587</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H23" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I23" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J23" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K23" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L23" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M23" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N23" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O23" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P23" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R23" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T23" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H24" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I24" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J24" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K24" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L24" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M24" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O24" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P24" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R24" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S24" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H25" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I25" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J25" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K25" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L25" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N25" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O25" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P25" t="n">
         <v>23.18685972752887</v>
@@ -32889,13 +32889,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R25" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S25" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T25" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U25" t="n">
         <v>0.01045709248084587</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H26" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I26" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J26" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K26" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L26" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M26" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N26" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O26" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P26" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R26" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T26" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H27" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I27" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J27" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K27" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L27" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M27" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O27" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P27" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R27" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S27" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,28 +33096,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H28" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I28" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J28" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K28" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L28" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N28" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O28" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P28" t="n">
         <v>23.18685972752887</v>
@@ -33126,13 +33126,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R28" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S28" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T28" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U28" t="n">
         <v>0.01045709248084587</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H29" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I29" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J29" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K29" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L29" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M29" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N29" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O29" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P29" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R29" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T29" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H30" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I30" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J30" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K30" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L30" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M30" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O30" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P30" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R30" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S30" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H31" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I31" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J31" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K31" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L31" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N31" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O31" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P31" t="n">
         <v>23.18685972752887</v>
@@ -33363,13 +33363,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R31" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S31" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T31" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U31" t="n">
         <v>0.01045709248084587</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H32" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I32" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J32" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K32" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L32" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M32" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N32" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O32" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P32" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R32" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T32" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H33" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I33" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J33" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K33" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L33" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M33" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O33" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P33" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R33" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S33" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,28 +33570,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H34" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I34" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J34" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K34" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L34" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N34" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O34" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P34" t="n">
         <v>23.18685972752887</v>
@@ -33600,13 +33600,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R34" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S34" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T34" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U34" t="n">
         <v>0.01045709248084587</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H35" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I35" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J35" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K35" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L35" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M35" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N35" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O35" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P35" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R35" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T35" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H36" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I36" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J36" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K36" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L36" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M36" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O36" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P36" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R36" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S36" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,28 +33807,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H37" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I37" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J37" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K37" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L37" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O37" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P37" t="n">
         <v>23.18685972752887</v>
@@ -33837,13 +33837,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R37" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S37" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T37" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U37" t="n">
         <v>0.01045709248084587</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H38" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I38" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J38" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K38" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L38" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M38" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N38" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O38" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P38" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R38" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T38" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H39" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I39" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J39" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K39" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L39" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M39" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O39" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P39" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R39" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S39" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,28 +34044,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H40" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I40" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J40" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K40" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L40" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O40" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P40" t="n">
         <v>23.18685972752887</v>
@@ -34074,13 +34074,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R40" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S40" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T40" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U40" t="n">
         <v>0.01045709248084587</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H41" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I41" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J41" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K41" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L41" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M41" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N41" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O41" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P41" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R41" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T41" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H42" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I42" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J42" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K42" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L42" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M42" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O42" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P42" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R42" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S42" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,28 +34281,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H43" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I43" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J43" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K43" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L43" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N43" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O43" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P43" t="n">
         <v>23.18685972752887</v>
@@ -34311,13 +34311,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R43" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S43" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T43" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U43" t="n">
         <v>0.01045709248084587</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H44" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I44" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J44" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K44" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L44" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M44" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N44" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O44" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P44" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R44" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T44" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H45" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I45" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J45" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K45" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L45" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M45" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O45" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P45" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R45" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S45" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,28 +34518,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H46" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I46" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J46" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K46" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L46" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O46" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P46" t="n">
         <v>23.18685972752887</v>
@@ -34548,13 +34548,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R46" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S46" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T46" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U46" t="n">
         <v>0.01045709248084587</v>
@@ -35404,22 +35404,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>20.1205794399426</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.39545783628773</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.16188228356451</v>
+        <v>45.79869349898749</v>
       </c>
       <c r="M11" t="n">
-        <v>58.81950869080134</v>
+        <v>50.9647478745602</v>
       </c>
       <c r="N11" t="n">
-        <v>45.93167652572829</v>
+        <v>60.96700599631292</v>
       </c>
       <c r="O11" t="n">
         <v>56.03197842934703</v>
@@ -35428,13 +35428,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>37.96728067972555</v>
+        <v>37.96728067972557</v>
       </c>
       <c r="R11" t="n">
-        <v>25.38106515843382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>14.83856368501263</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35462,13 +35462,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>47.58625317961923</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>66.67437126484785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.98288255729508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2.771192964252941</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35516,7 +35516,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>14.87642849218657</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35544,13 +35544,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>32.40711624841371</v>
+        <v>46.87261573085877</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>57.93806202465905</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="N13" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.44617535402769</v>
+        <v>45.44617535402772</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.12057943994258</v>
+        <v>20.12057943994252</v>
       </c>
       <c r="J14" t="n">
-        <v>69.34789868787075</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>45.7986934989874</v>
       </c>
       <c r="M14" t="n">
-        <v>58.81950869080134</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>60.21395326210158</v>
+        <v>60.96700599631284</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>56.03197842934695</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.96728067972555</v>
+        <v>37.96728067972548</v>
       </c>
       <c r="R14" t="n">
-        <v>25.38106515843382</v>
+        <v>50.96474787456073</v>
       </c>
       <c r="S14" t="n">
-        <v>14.83856368501261</v>
+        <v>14.83856368501255</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>54.56913573691454</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>69.44556422910088</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35753,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>14.87642849218651</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.28745664754928</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35787,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>67.68547418291735</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35799,19 +35799,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.43430555666798</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>51.53509090532855</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35820,13 +35820,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>37.12520357260119</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>45.44617535402763</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,7 +35875,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.74642708286473</v>
+        <v>12.74642708286478</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>72.40356150710443</v>
+        <v>56.73173799971023</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35902,22 +35902,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="R17" t="n">
-        <v>36.63979614929515</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="U17" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="V17" t="n">
-        <v>20.09194185041508</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,19 +36112,19 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>12.74642708286479</v>
+        <v>12.74642708286478</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>56.73173799971023</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,28 +36133,28 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="P20" t="n">
-        <v>36.63979614929504</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>20.09194185041514</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,19 +36349,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12.74642708286478</v>
       </c>
       <c r="I23" t="n">
-        <v>69.47816508257485</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>36.63979614929509</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="T23" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>72.40356150710448</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>20.09194185041514</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.226083456042</v>
+        <v>27.22608345604191</v>
       </c>
       <c r="J26" t="n">
-        <v>133.9087291306178</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>258.8354087925793</v>
+        <v>339.7360844719881</v>
       </c>
       <c r="L26" t="n">
+        <v>52.90419751508679</v>
+      </c>
+      <c r="M26" t="n">
         <v>430.5925962394319</v>
       </c>
-      <c r="M26" t="n">
-        <v>294.2136053541473</v>
-      </c>
       <c r="N26" t="n">
-        <v>68.07251001241234</v>
+        <v>68.07251001241222</v>
       </c>
       <c r="O26" t="n">
-        <v>63.13748244544645</v>
+        <v>35.65623556423402</v>
       </c>
       <c r="P26" t="n">
-        <v>51.45145676655456</v>
+        <v>373.2501649380371</v>
       </c>
       <c r="Q26" t="n">
-        <v>257.3877753557297</v>
+        <v>257.3877753557296</v>
       </c>
       <c r="R26" t="n">
-        <v>98.20298904751567</v>
+        <v>98.20298904751559</v>
       </c>
       <c r="S26" t="n">
-        <v>21.94406770111203</v>
+        <v>21.94406770111194</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>47.69624064140754</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36726,19 +36726,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>26.7530668602448</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>72.60946782737355</v>
       </c>
       <c r="E28" t="n">
-        <v>74.79097819901682</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>75.80389282265466</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>100.3754493112558</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.226083456042</v>
+        <v>27.22608345604199</v>
       </c>
       <c r="J29" t="n">
-        <v>76.45340270397017</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>379.6463744235519</v>
+        <v>55.50096185238712</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>294.2136053541473</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="N29" t="n">
-        <v>400.4521195946051</v>
+        <v>231.5004103174874</v>
       </c>
       <c r="O29" t="n">
-        <v>63.13748244544645</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="P29" t="n">
         <v>373.2501649380372</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.16283451014366</v>
+        <v>36.16283451014365</v>
       </c>
       <c r="R29" t="n">
-        <v>32.48656917453324</v>
+        <v>98.20298904751567</v>
       </c>
       <c r="S29" t="n">
-        <v>21.94406770111203</v>
+        <v>21.94406770111202</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>47.69624064140754</v>
       </c>
       <c r="K30" t="n">
-        <v>47.69624064140754</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>53.97811974695816</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.34549479367453</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>114.8428129696399</v>
       </c>
       <c r="M31" t="n">
-        <v>112.3510978391851</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>62.81532967108745</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>27.22608345604194</v>
+        <v>27.22608345604193</v>
       </c>
       <c r="J32" t="n">
         <v>245.5500178760439</v>
       </c>
       <c r="K32" t="n">
-        <v>55.50096185238709</v>
+        <v>379.6463744235518</v>
       </c>
       <c r="L32" t="n">
-        <v>52.90419751508685</v>
+        <v>249.3404712199513</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>65.92501270690067</v>
       </c>
       <c r="N32" t="n">
-        <v>430.5925962394319</v>
+        <v>41.44135403097054</v>
       </c>
       <c r="O32" t="n">
-        <v>430.5925962394319</v>
+        <v>63.13748244544637</v>
       </c>
       <c r="P32" t="n">
-        <v>85.07141901880854</v>
+        <v>373.2501649380371</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.3877753557296</v>
+        <v>205.0251063290002</v>
       </c>
       <c r="R32" t="n">
-        <v>98.20298904751562</v>
+        <v>32.48656917453317</v>
       </c>
       <c r="S32" t="n">
         <v>21.94406770111197</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>47.69624064140771</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>41.39296066364864</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>25.98981273651139</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>107.7836541101128</v>
       </c>
       <c r="K34" t="n">
-        <v>114.4852896592522</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>60.68113785102066</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>99.86871449536773</v>
+        <v>99.86871449536767</v>
       </c>
       <c r="K35" t="n">
-        <v>358.1890347323273</v>
+        <v>155.9650174020122</v>
       </c>
       <c r="L35" t="n">
-        <v>76.31950930648446</v>
+        <v>358.1890347323275</v>
       </c>
       <c r="M35" t="n">
-        <v>89.34032449829832</v>
+        <v>358.1890347323275</v>
       </c>
       <c r="N35" t="n">
-        <v>91.48782180380989</v>
+        <v>91.48782180380981</v>
       </c>
       <c r="O35" t="n">
-        <v>86.55279423684401</v>
+        <v>86.55279423684392</v>
       </c>
       <c r="P35" t="n">
-        <v>352.6559964031024</v>
+        <v>74.86676855795203</v>
       </c>
       <c r="Q35" t="n">
-        <v>73.47666709864595</v>
+        <v>68.48809648722246</v>
       </c>
       <c r="R35" t="n">
-        <v>121.6183008389132</v>
+        <v>55.90188096593073</v>
       </c>
       <c r="S35" t="n">
-        <v>45.35937949250958</v>
+        <v>45.35937949250952</v>
       </c>
       <c r="T35" t="n">
-        <v>23.41531179139763</v>
+        <v>23.41531179139757</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>7.197970129513378</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37427,7 +37427,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>7.197970129513436</v>
       </c>
     </row>
     <row r="37">
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>92.89710847207255</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>92.89710847207283</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.64139524743955</v>
+        <v>50.64139524743949</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>99.86871449536767</v>
       </c>
       <c r="K38" t="n">
-        <v>78.91627364378471</v>
+        <v>78.91627364378462</v>
       </c>
       <c r="L38" t="n">
-        <v>76.31950930648446</v>
+        <v>358.1890347323275</v>
       </c>
       <c r="M38" t="n">
-        <v>358.1890347323275</v>
+        <v>89.34032449829823</v>
       </c>
       <c r="N38" t="n">
         <v>358.1890347323275</v>
       </c>
       <c r="O38" t="n">
-        <v>86.55279423684401</v>
+        <v>86.55279423684392</v>
       </c>
       <c r="P38" t="n">
-        <v>49.35553289403742</v>
+        <v>103.4216143742515</v>
       </c>
       <c r="Q38" t="n">
-        <v>280.8030871471272</v>
+        <v>68.48809648722246</v>
       </c>
       <c r="R38" t="n">
-        <v>55.90188096593079</v>
+        <v>55.90188096593073</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>45.35937949250952</v>
       </c>
       <c r="T38" t="n">
-        <v>23.41531179139763</v>
+        <v>23.41531179139757</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>7.197970129513436</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7.197970129513375</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>92.89710847207283</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.89710847207265</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>50.64139524743955</v>
       </c>
       <c r="J41" t="n">
-        <v>209.0304515428959</v>
+        <v>99.86871449536773</v>
       </c>
       <c r="K41" t="n">
         <v>358.1890347323275</v>
       </c>
       <c r="L41" t="n">
-        <v>76.31950930648446</v>
+        <v>76.31950930648443</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>332.501278650704</v>
       </c>
       <c r="N41" t="n">
-        <v>91.48782180380989</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>86.55279423684401</v>
+        <v>86.55279423684398</v>
       </c>
       <c r="P41" t="n">
-        <v>74.86676855795211</v>
+        <v>8.731468631568461</v>
       </c>
       <c r="Q41" t="n">
         <v>280.8030871471272</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6183008389132</v>
+        <v>55.90188096593079</v>
       </c>
       <c r="S41" t="n">
         <v>45.35937949250958</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>7.197970129513371</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37901,7 +37901,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.197970129513375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>92.89710847207266</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.89710847207265</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>50.64139524743955</v>
       </c>
       <c r="J44" t="n">
-        <v>268.9653296674415</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>78.91627364378468</v>
+      </c>
+      <c r="L44" t="n">
         <v>358.1890347323275</v>
       </c>
-      <c r="L44" t="n">
-        <v>76.31950930648446</v>
-      </c>
       <c r="M44" t="n">
-        <v>89.34032449829832</v>
+        <v>304.316679046809</v>
       </c>
       <c r="N44" t="n">
-        <v>91.48782180380989</v>
+        <v>358.1890347323275</v>
       </c>
       <c r="O44" t="n">
-        <v>86.55279423684401</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>74.86676855795208</v>
       </c>
       <c r="Q44" t="n">
-        <v>206.3946530822353</v>
+        <v>68.48809648722252</v>
       </c>
       <c r="R44" t="n">
-        <v>121.6183008389132</v>
+        <v>55.90188096593079</v>
       </c>
       <c r="S44" t="n">
         <v>45.35937949250958</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>7.197970129513371</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38120,7 +38120,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7.197970129513375</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>51.41861070472946</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>49.32770706748225</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>23.96469564764154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>17.51380211970164</v>
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>26.05559928488876</v>
       </c>
     </row>
   </sheetData>
